--- a/Konakart/src/test/resources/com/atmecs/application/datavalues/datavalue.xlsx
+++ b/Konakart/src/test/resources/com/atmecs/application/datavalues/datavalue.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15225" windowHeight="3015" activeTab="2"/>
+    <workbookView windowWidth="15225" windowHeight="3015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="dateval" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:G10"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>dropdown_data</t>
   </si>
@@ -90,6 +91,39 @@
   </si>
   <si>
     <t>Add your product specifications here. By default, the Enterprise version of KonaKart displays the template based custom attributes.</t>
+  </si>
+  <si>
+    <t>oldest first for kindle</t>
+  </si>
+  <si>
+    <t>newest first for kindle</t>
+  </si>
+  <si>
+    <t>oldest first for kitchen</t>
+  </si>
+  <si>
+    <t>newest first for kitchen</t>
+  </si>
+  <si>
+    <t>Thursday 7 February 2013</t>
+  </si>
+  <si>
+    <t>Wednesday 16 October 2013</t>
+  </si>
+  <si>
+    <t>Friday 6 December 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday 7 July 2016 </t>
+  </si>
+  <si>
+    <t>Thursday 9 May 2013</t>
+  </si>
+  <si>
+    <t>Friday 25 September 2015</t>
+  </si>
+  <si>
+    <t>Thursday 17 December 2015</t>
   </si>
 </sst>
 </file>
@@ -97,18 +131,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -126,23 +166,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,62 +203,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,6 +224,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -239,10 +263,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,7 +280,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,37 +310,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +436,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,127 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +501,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,21 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -505,26 +545,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +569,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -553,11 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,159 +606,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1059,16 +1102,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1079,16 +1122,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -1146,7 +1189,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1176,15 +1219,114 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="28.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="34.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="36.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Konakart/src/test/resources/com/atmecs/application/datavalues/datavalue.xlsx
+++ b/Konakart/src/test/resources/com/atmecs/application/datavalues/datavalue.xlsx
@@ -114,7 +114,7 @@
     <t>Friday 6 December 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Thursday 7 July 2016 </t>
+    <t>Thursday 7 July 2016</t>
   </si>
   <si>
     <t>Thursday 9 May 2013</t>
@@ -133,8 +133,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -157,38 +157,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +172,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -210,7 +242,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,9 +264,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,62 +286,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +310,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,7 +334,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,139 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,17 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,11 +528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,8 +546,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +567,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -581,23 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,148 +606,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
